--- a/backup/UI_001/XL/Functional_Data.xlsx
+++ b/backup/UI_001/XL/Functional_Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Send2\git\UI_1\backup\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802508FF-616B-4249-89CE-E3A8E5F0D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121FBDB-3B0B-4B42-928B-97DE65B10D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Validation" sheetId="3" r:id="rId1"/>
     <sheet name="Handle_MultiTab" sheetId="7" r:id="rId2"/>
     <sheet name="File_Uploads" sheetId="4" r:id="rId3"/>
-    <sheet name="Drag_Drop" sheetId="5" r:id="rId4"/>
-    <sheet name="Alert_Popup" sheetId="6" r:id="rId5"/>
+    <sheet name="Actions_Perform" sheetId="8" r:id="rId4"/>
+    <sheet name="Drag_Drop" sheetId="5" r:id="rId5"/>
+    <sheet name="Alert_Popup" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
   <si>
     <t>S.No</t>
   </si>
@@ -293,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,7 +308,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,26 +656,26 @@
     <col min="3" max="3" width="20.54296875" customWidth="1"/>
     <col min="4" max="4" width="65.08984375" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="9"/>
+    <col min="6" max="6" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -846,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCED37-6B1B-4D13-B64C-9313FC1D2632}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,22 +896,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -977,7 +977,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -995,7 +995,7 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1013,7 +1013,7 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1031,7 +1031,7 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1049,7 +1049,7 @@
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1067,7 +1067,7 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1082,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1111,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F050A808-B130-4C28-8A28-ED9CBACB33DF}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,22 +1126,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1171,8 +1171,8 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -1187,10 +1187,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -1205,13 +1205,13 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>6</v>
@@ -1221,15 +1221,15 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
@@ -1239,15 +1239,15 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
@@ -1257,258 +1257,24 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
+      <c r="B8" s="1"/>
+      <c r="C8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{342B9C1F-5B0D-4516-9E7C-D7E6940D9057}">
-      <formula1>$H$2:$H$4</formula1>
+      <formula1>$H$2:$H$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,6 +1282,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D07FED-7FCB-4556-9833-4BECA0D7E692}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="65.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{7D355605-D13F-4584-B36C-F052CFF546F6}">
+      <formula1>$H$2:$H$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9579DF9A-7114-4E0C-8F13-DF7FC313843C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1532,22 +1560,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1598,7 +1626,7 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1610,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1628,13 +1656,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1651,11 +1679,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD18DD65-100D-4572-96FB-21EA347B85EC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1668,22 +1696,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1746,13 +1774,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1764,13 +1792,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1818,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1836,13 +1864,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1854,13 +1882,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
